--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\test-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F81F36C-E718-4325-B3D7-725F7B591A55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1508B7A-1053-4BF3-99A2-8E6F1C1A6D68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Test2</t>
   </si>
 </sst>
 </file>
@@ -345,15 +348,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\test-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1508B7A-1053-4BF3-99A2-8E6F1C1A6D68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABE5331-B9A8-48E1-9130-318E86FB78BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Test</t>
   </si>
   <si>
     <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
   </si>
 </sst>
 </file>
@@ -348,21 +351,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\test-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABE5331-B9A8-48E1-9130-318E86FB78BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4D9181-5337-4620-98A4-3BF0496ACFF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Test</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Test3</t>
+  </si>
+  <si>
+    <t>test4</t>
   </si>
 </sst>
 </file>
@@ -351,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,6 +373,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
